--- a/Result/ARIMA/Service/AUS.xlsx
+++ b/Result/ARIMA/Service/AUS.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>59.50010999359813</v>
+        <v>0.3354314908498832</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>61.24874468069734</v>
+        <v>59.83554148444802</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>61.8935216033193</v>
+        <v>61.58417617154723</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>62.55959911574948</v>
+        <v>62.22895309416919</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>62.52566339061073</v>
+        <v>62.89503060659936</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>62.43297296315505</v>
+        <v>62.86109488146062</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>62.48231297149646</v>
+        <v>62.76840445400494</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>63.43740393379319</v>
+        <v>62.81774446234635</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>63.60619656885888</v>
+        <v>63.77283542464308</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>64.35908420354181</v>
+        <v>63.94162805970876</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>64.38066136534678</v>
+        <v>64.6945156943917</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>64.17506034244782</v>
+        <v>64.71609285619667</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>63.9761030944481</v>
+        <v>64.51049183329771</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>64.30586534747231</v>
+        <v>64.31153458529798</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>64.28204935168723</v>
+        <v>64.64129683832219</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>64.36243563356258</v>
+        <v>64.61748084253712</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>63.70864031345024</v>
+        <v>64.69786712441247</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>64.31800441856682</v>
+        <v>64.04407180430012</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>64.46163466621188</v>
+        <v>64.6534359094167</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>64.06945674146428</v>
+        <v>64.79706615706176</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>65.68996774782823</v>
+        <v>64.40488823231416</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>64.62608734901947</v>
+        <v>66.02539923867812</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>65.16198116553896</v>
+        <v>64.96151883986936</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>66.25047023861437</v>
+        <v>65.49741265638885</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>65.68628002950167</v>
+        <v>66.58590172946425</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>67.23042717287444</v>
+        <v>66.02171152035156</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>68.22132971073941</v>
+        <v>67.56585866372433</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>59.50010999359813</v>
+        <v>0.2004418719579071</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>61.24874468069734</v>
+        <v>59.70055186555603</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>61.8935216033193</v>
+        <v>61.44918655265525</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>62.55959911574948</v>
+        <v>62.09396347527721</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>62.52566339061073</v>
+        <v>62.76004098770738</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>62.43297296315505</v>
+        <v>62.72610526256864</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>62.48231297149646</v>
+        <v>62.63341483511296</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>63.43740393379319</v>
+        <v>62.68275484345437</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>63.60619656885888</v>
+        <v>63.6378458057511</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>64.35908420354181</v>
+        <v>63.80663844081678</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>64.38066136534678</v>
+        <v>64.55952607549972</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>64.17506034244782</v>
+        <v>64.58110323730469</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>63.9761030944481</v>
+        <v>64.37550221440573</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>64.30586534747231</v>
+        <v>64.17654496640601</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>64.28204935168723</v>
+        <v>64.50630721943021</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>64.36243563356258</v>
+        <v>64.48249122364514</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>63.70864031345024</v>
+        <v>64.56287750552049</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>64.31800441856682</v>
+        <v>63.90908218540815</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>64.46163466621188</v>
+        <v>64.51844629052472</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>64.06945674146428</v>
+        <v>64.66207653816979</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>65.68996774782823</v>
+        <v>64.26989861342219</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>64.62608734901947</v>
+        <v>65.89040961978614</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>65.16198116553896</v>
+        <v>64.82652922097738</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>66.25047023861437</v>
+        <v>65.36242303749687</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>65.68628002950167</v>
+        <v>66.45091211057228</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>67.23042717287444</v>
+        <v>65.88672190145958</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>68.22132971073941</v>
+        <v>67.43086904483235</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>67.01452952684967</v>
+        <v>68.42177158269732</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>66.65724334842149</v>
+        <v>67.21497139880758</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>66.06471595311547</v>
+        <v>66.85768522037939</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>66.28080849487043</v>
+        <v>66.26515782507337</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>65.71380883498387</v>
+        <v>66.48125036682833</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
